--- a/Data/smoke.xlsx
+++ b/Data/smoke.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryce\Desktop\Master\P8105\Homework\Alzheimers_Disease_New_Hope\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87E65C7-A5FE-41D0-B1E0-A1315DE58571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4B98B9-AB24-46DA-866C-4055C314AF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1783" yWindow="1783" windowWidth="17477" windowHeight="7268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,9 +79,6 @@
     <t>Hawaii</t>
   </si>
   <si>
-    <t>illinois</t>
-  </si>
-  <si>
     <t>Indiana</t>
   </si>
   <si>
@@ -251,6 +248,10 @@
   </si>
   <si>
     <t>Idaho</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Illinois</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -259,7 +260,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="185" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -289,11 +290,13 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -372,16 +375,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -662,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E52"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23046875" defaultRowHeight="15.45" x14ac:dyDescent="0.3"/>
@@ -895,7 +898,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14">
         <v>14.7</v>
@@ -912,7 +915,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="B15">
         <v>15.5</v>
@@ -929,7 +932,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>21.1</v>
@@ -946,7 +949,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17">
         <v>16.600000000000001</v>
@@ -963,7 +966,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>17.2</v>
@@ -980,7 +983,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <v>23.4</v>
@@ -997,7 +1000,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>20.5</v>
@@ -1014,7 +1017,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <v>17.8</v>
@@ -1031,7 +1034,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22">
         <v>12.5</v>
@@ -1048,7 +1051,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23">
         <v>13.4</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24">
         <v>18.899999999999999</v>
@@ -1082,7 +1085,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25">
         <v>15.1</v>
@@ -1099,7 +1102,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26">
         <v>20.5</v>
@@ -1116,7 +1119,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27">
         <v>19.399999999999999</v>
@@ -1133,7 +1136,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28">
         <v>18</v>
@@ -1150,7 +1153,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29">
         <v>16</v>
@@ -1167,7 +1170,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30">
         <v>15.7</v>
@@ -1184,7 +1187,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31">
         <v>15.6</v>
@@ -1201,7 +1204,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32">
         <v>13.1</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33">
         <v>15.2</v>
@@ -1232,7 +1235,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34">
         <v>12.8</v>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35">
         <v>17.399999999999999</v>
@@ -1266,7 +1269,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36">
         <v>19.100000000000001</v>
@@ -1283,7 +1286,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37">
         <v>20.5</v>
@@ -1300,7 +1303,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38">
         <v>19.7</v>
@@ -1317,7 +1320,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39">
         <v>15.6</v>
@@ -1334,7 +1337,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40">
         <v>17</v>
@@ -1351,7 +1354,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B41">
         <v>14.6</v>
@@ -1368,7 +1371,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B42">
         <v>18</v>
@@ -1385,7 +1388,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43">
         <v>19</v>
@@ -1402,7 +1405,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44">
         <v>20.7</v>
@@ -1419,7 +1422,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45">
         <v>14.4</v>
@@ -1436,7 +1439,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46">
         <v>9</v>
@@ -1453,7 +1456,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47">
         <v>13.7</v>
@@ -1470,7 +1473,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48">
         <v>14.9</v>
@@ -1487,7 +1490,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49">
         <v>12</v>
@@ -1504,7 +1507,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50">
         <v>25.2</v>
@@ -1521,7 +1524,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51">
         <v>16.399999999999999</v>
@@ -1538,7 +1541,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52">
         <v>18.8</v>
@@ -1646,7 +1649,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1667,7 +1670,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="10">
         <v>0.13</v>
@@ -1675,7 +1678,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="10">
         <v>0.106</v>
@@ -1683,7 +1686,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="10">
         <v>0.157</v>
@@ -1691,7 +1694,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="10">
         <v>0.14099999999999999</v>
@@ -1699,7 +1702,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="10">
         <v>0.13900000000000001</v>
@@ -1707,7 +1710,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="10">
         <v>0.183</v>
@@ -1715,7 +1718,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="10">
         <v>0.17199999999999999</v>
@@ -1723,7 +1726,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="10">
         <v>0.13300000000000001</v>
@@ -1731,7 +1734,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="10">
         <v>9.2999999999999999E-2</v>
@@ -1739,7 +1742,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="10">
         <v>9.4E-2</v>
@@ -1747,7 +1750,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="10">
         <v>0.155</v>
@@ -1755,7 +1758,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="10">
         <v>0.122</v>
@@ -1763,7 +1766,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="10">
         <v>0.17699999999999999</v>
@@ -1771,7 +1774,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="10">
         <v>0.157</v>
@@ -1779,7 +1782,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="10">
         <v>0.129</v>
@@ -1787,7 +1790,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="10">
         <v>0.124</v>
@@ -1795,7 +1798,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="10">
         <v>0.14199999999999999</v>
@@ -1803,7 +1806,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="10">
         <v>0.11</v>
@@ -1811,7 +1814,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="10">
         <v>0.10299999999999999</v>
@@ -1819,7 +1822,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="10">
         <v>0.13100000000000001</v>
@@ -1827,7 +1830,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="10">
         <v>0.11899999999999999</v>
@@ -1835,7 +1838,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="10">
         <v>0.129</v>
@@ -1843,7 +1846,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="10">
         <v>0.13100000000000001</v>
@@ -1851,7 +1854,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="10">
         <v>0.16</v>
@@ -1859,7 +1862,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="10">
         <v>0.152</v>
@@ -1867,7 +1870,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="10">
         <v>0.11700000000000001</v>
@@ -1875,7 +1878,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="10">
         <v>0.13100000000000001</v>
@@ -1883,7 +1886,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="10">
         <v>0.109</v>
@@ -1891,7 +1894,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="10">
         <v>0.14099999999999999</v>
@@ -1899,7 +1902,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="10">
         <v>0.129</v>
@@ -1907,7 +1910,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="10">
         <v>0.17399999999999999</v>
@@ -1915,7 +1918,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="10">
         <v>0.124</v>
@@ -1923,7 +1926,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="10">
         <v>6.5000000000000002E-2</v>
@@ -1931,7 +1934,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="10">
         <v>0.128</v>
@@ -1939,7 +1942,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="10">
         <v>0.106</v>
@@ -1947,7 +1950,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" s="10">
         <v>9.8000000000000004E-2</v>
@@ -1955,7 +1958,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" s="10">
         <v>0.19900000000000001</v>
@@ -1963,7 +1966,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" s="10">
         <v>0.113</v>
@@ -1971,7 +1974,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" s="10">
         <v>0.155</v>
@@ -2091,7 +2094,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" s="11">
         <v>0.13400000000000001</v>
@@ -2099,7 +2102,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="11">
         <v>0.115</v>
@@ -2107,7 +2110,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="11">
         <v>0.183</v>
@@ -2115,7 +2118,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="11">
         <v>0.14599999999999999</v>
@@ -2123,7 +2126,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="11">
         <v>0.152</v>
@@ -2131,7 +2134,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="11">
         <v>0.19900000000000001</v>
@@ -2139,7 +2142,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="11">
         <v>0.16400000000000001</v>
@@ -2147,7 +2150,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="11">
         <v>0.14499999999999999</v>
@@ -2155,7 +2158,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="11">
         <v>0.105</v>
@@ -2163,7 +2166,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="11">
         <v>9.6000000000000002E-2</v>
@@ -2171,7 +2174,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="11">
         <v>0.156</v>
@@ -2179,7 +2182,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="11">
         <v>0.13</v>
@@ -2187,7 +2190,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="11">
         <v>0.17399999999999999</v>
@@ -2195,7 +2198,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="11">
         <v>0.16200000000000001</v>
@@ -2203,7 +2206,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="11">
         <v>0.14199999999999999</v>
@@ -2211,7 +2214,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="11">
         <v>0.127</v>
@@ -2219,7 +2222,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="11">
         <v>0.14099999999999999</v>
@@ -2227,7 +2230,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="11">
         <v>0.125</v>
@@ -2235,7 +2238,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="11">
         <v>0.10199999999999999</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="11">
         <v>0.14499999999999999</v>
@@ -2251,7 +2254,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="11">
         <v>0.112</v>
@@ -2259,7 +2262,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="11">
         <v>0.151</v>
@@ -2267,7 +2270,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="11">
         <v>0.151</v>
@@ -2275,7 +2278,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="11">
         <v>0.186</v>
@@ -2283,7 +2286,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="11">
         <v>0.17799999999999999</v>
@@ -2291,7 +2294,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="11">
         <v>0.127</v>
@@ -2299,7 +2302,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="11">
         <v>0.14099999999999999</v>
@@ -2307,7 +2310,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="11">
         <v>0.125</v>
@@ -2315,7 +2318,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="11">
         <v>0.155</v>
@@ -2323,7 +2326,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="11">
         <v>0.158</v>
@@ -2331,7 +2334,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="11">
         <v>0.18099999999999999</v>
@@ -2339,7 +2342,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="11">
         <v>0.128</v>
@@ -2347,7 +2350,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="11">
         <v>7.0999999999999994E-2</v>
@@ -2355,7 +2358,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="11">
         <v>0.11899999999999999</v>
@@ -2363,7 +2366,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="11">
         <v>0.124</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" s="11">
         <v>0.108</v>
@@ -2379,7 +2382,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" s="11">
         <v>0.22</v>
@@ -2387,7 +2390,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" s="11">
         <v>0.13100000000000001</v>
@@ -2395,7 +2398,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" s="11">
         <v>0.17</v>
@@ -2419,19 +2422,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2623,7 +2626,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13">
         <v>21.9</v>
@@ -2657,7 +2660,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15">
         <v>14.7</v>
@@ -2674,7 +2677,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16">
         <v>15.5</v>
@@ -2691,7 +2694,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17">
         <v>21.1</v>
@@ -2708,7 +2711,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>16.600000000000001</v>
@@ -2725,7 +2728,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>17.2</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20">
         <v>23.4</v>
@@ -2759,7 +2762,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21">
         <v>20.5</v>
@@ -2776,7 +2779,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22">
         <v>17.8</v>
@@ -2793,7 +2796,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23">
         <v>12.5</v>
@@ -2810,7 +2813,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24">
         <v>13.4</v>
@@ -2827,7 +2830,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25">
         <v>18.899999999999999</v>
@@ -2844,7 +2847,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26">
         <v>15.1</v>
@@ -2861,7 +2864,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27">
         <v>20.5</v>
@@ -2878,7 +2881,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28">
         <v>19.399999999999999</v>
@@ -2895,7 +2898,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29">
         <v>18</v>
@@ -2912,7 +2915,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30">
         <v>16</v>
@@ -2929,7 +2932,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31">
         <v>15.7</v>
@@ -2946,7 +2949,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32">
         <v>15.6</v>
@@ -2963,7 +2966,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33">
         <v>13.1</v>
@@ -2980,7 +2983,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34">
         <v>15.2</v>
@@ -2997,7 +3000,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35">
         <v>12.8</v>
@@ -3014,7 +3017,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36">
         <v>17.399999999999999</v>
@@ -3031,7 +3034,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37">
         <v>19.100000000000001</v>
@@ -3048,7 +3051,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38">
         <v>20.5</v>
@@ -3065,7 +3068,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39">
         <v>19.7</v>
@@ -3082,7 +3085,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40">
         <v>15.6</v>
@@ -3099,7 +3102,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41">
         <v>17</v>
@@ -3116,7 +3119,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B42">
         <v>10</v>
@@ -3133,7 +3136,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43">
         <v>14.6</v>
@@ -3150,7 +3153,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44">
         <v>18</v>
@@ -3167,7 +3170,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45">
         <v>19</v>
@@ -3184,7 +3187,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46">
         <v>20.7</v>
@@ -3201,7 +3204,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47">
         <v>14.4</v>
@@ -3218,7 +3221,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48">
         <v>9</v>
@@ -3235,7 +3238,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49">
         <v>13.7</v>
@@ -3252,7 +3255,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50">
         <v>14.9</v>
@@ -3269,7 +3272,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51">
         <v>12</v>
@@ -3286,7 +3289,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B52">
         <v>25.2</v>
@@ -3303,7 +3306,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53">
         <v>16.399999999999999</v>
@@ -3320,7 +3323,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54">
         <v>18.8</v>
@@ -3353,19 +3356,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -3557,7 +3560,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13">
         <v>23.4</v>
@@ -3591,7 +3594,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B15">
         <v>15.3</v>
@@ -3608,7 +3611,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16">
         <v>14.5</v>
@@ -3625,7 +3628,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17">
         <v>19.2</v>
@@ -3642,7 +3645,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>16.399999999999999</v>
@@ -3659,7 +3662,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>16.2</v>
@@ -3676,7 +3679,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20">
         <v>23.6</v>
@@ -3693,7 +3696,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21">
         <v>21.9</v>
@@ -3710,7 +3713,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22">
         <v>17.600000000000001</v>
@@ -3727,7 +3730,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23">
         <v>12.7</v>
@@ -3744,7 +3747,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24">
         <v>12</v>
@@ -3761,7 +3764,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25">
         <v>18.7</v>
@@ -3778,7 +3781,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26">
         <v>14.6</v>
@@ -3795,7 +3798,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27">
         <v>20.399999999999999</v>
@@ -3812,7 +3815,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28">
         <v>19.600000000000001</v>
@@ -3829,7 +3832,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29">
         <v>16.600000000000001</v>
@@ -3846,7 +3849,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30">
         <v>14.7</v>
@@ -3863,7 +3866,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31">
         <v>15.7</v>
@@ -3880,7 +3883,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32">
         <v>15.9</v>
@@ -3897,24 +3900,24 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34">
         <v>16</v>
@@ -3931,7 +3934,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35">
         <v>12.7</v>
@@ -3948,7 +3951,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36">
         <v>18.5</v>
@@ -3965,7 +3968,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37">
         <v>17</v>
@@ -3982,7 +3985,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38">
         <v>20.8</v>
@@ -3999,7 +4002,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39">
         <v>18.899999999999999</v>
@@ -4016,7 +4019,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40">
         <v>14.5</v>
@@ -4033,7 +4036,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41">
         <v>17.3</v>
@@ -4050,7 +4053,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B42">
         <v>9.6</v>
@@ -4067,7 +4070,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43">
         <v>13.3</v>
@@ -4084,7 +4087,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44">
         <v>17.5</v>
@@ -4101,7 +4104,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45">
         <v>18.3</v>
@@ -4118,7 +4121,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46">
         <v>19.899999999999999</v>
@@ -4135,7 +4138,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47">
         <v>14.7</v>
@@ -4152,7 +4155,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48">
         <v>7.9</v>
@@ -4169,7 +4172,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49">
         <v>15.1</v>
@@ -4186,7 +4189,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50">
         <v>14</v>
@@ -4203,7 +4206,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51">
         <v>12.6</v>
@@ -4220,7 +4223,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B52">
         <v>23.8</v>
@@ -4237,7 +4240,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53">
         <v>15.4</v>
@@ -4254,7 +4257,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54">
         <v>18.399999999999999</v>
@@ -4293,34 +4296,34 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="5">
         <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5">
         <v>18</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -4331,117 +4334,117 @@
         <v>18</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="5">
         <v>18</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="5">
         <v>17</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="5">
         <v>17</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="5">
         <v>17</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="5">
         <v>16</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="5">
         <v>16</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="5">
         <v>16</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="5">
         <v>16</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="5">
         <v>15</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="5">
         <v>15</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
@@ -4452,7 +4455,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
@@ -4463,95 +4466,95 @@
         <v>15</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="5">
         <v>14</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="5">
         <v>14</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="5">
         <v>14</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" s="5">
         <v>14</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="5">
         <v>13</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="5">
         <v>13</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="5">
         <v>13</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" s="5">
         <v>13</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
@@ -4562,95 +4565,95 @@
         <v>13</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="5">
         <v>13</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" s="5">
         <v>13</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="5">
         <v>13</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" s="5">
         <v>13</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" s="5">
         <v>13</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" s="5">
         <v>12</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C36" s="5">
         <v>12</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C37" s="5">
         <v>12</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
@@ -4661,29 +4664,29 @@
         <v>12</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C39" s="5">
         <v>12</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C40" s="5">
         <v>12</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
@@ -4694,18 +4697,18 @@
         <v>12</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" s="5">
         <v>12</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
@@ -4716,62 +4719,62 @@
         <v>11</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" s="5">
         <v>11</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C45" s="5">
         <v>11</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C46" s="5">
         <v>11</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" s="5">
         <v>11</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C48" s="5">
         <v>11</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
@@ -4782,51 +4785,51 @@
         <v>10</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C50" s="5">
         <v>10</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C51" s="5">
         <v>10</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C52" s="5">
         <v>9</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C53" s="5">
         <v>9</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
@@ -4837,7 +4840,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
@@ -4848,7 +4851,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
@@ -4859,29 +4862,29 @@
         <v>9</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B57" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C57" s="5">
         <v>8</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C58" s="5">
         <v>6</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
